--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_14_20.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_14_20.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>645707.1393246809</v>
+        <v>643185.7178754921</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673431</v>
+        <v>603248.4937673433</v>
       </c>
     </row>
     <row r="9">
@@ -659,19 +659,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>222.6314883875127</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>385.2199810837766</v>
       </c>
       <c r="G2" t="n">
-        <v>411.547702772954</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -710,19 +710,19 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>23.78819842283079</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -756,7 +756,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>146.0891213324944</v>
+        <v>8.906162259191587</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -829,13 +829,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -865,10 +865,10 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
         <v>286.2271541212006</v>
@@ -880,10 +880,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -893,25 +893,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>11.54770277295399</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H5" t="n">
-        <v>301.0185525624054</v>
+        <v>224.4721802980703</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -944,7 +944,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>39.56909248208414</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -956,13 +956,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +993,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1051,19 +1051,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>139.8168879457608</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1072,7 +1072,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1102,25 +1102,25 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>76.25086600925742</v>
       </c>
       <c r="U7" t="n">
         <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1130,13 +1130,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1145,13 +1145,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,22 +1184,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>223.0977753814039</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>36.95558184798492</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1227,10 +1227,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S9" t="n">
         <v>128.1435076414547</v>
@@ -1288,7 +1288,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1297,7 +1297,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>112.5571655950318</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -1306,10 +1306,10 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,13 +1336,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
         <v>286.2118382056129</v>
@@ -1351,10 +1351,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>139.3948594558967</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1373,7 +1373,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>304.391515483393</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>34.32106446352842</v>
+        <v>84.61259060081962</v>
       </c>
       <c r="T11" t="n">
         <v>199.1970568374742</v>
@@ -1528,25 +1528,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>29.55527856873859</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>81.37259901119253</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.4539897919539</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.80457674440902</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1765,25 +1765,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986308</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>129.1078928223822</v>
       </c>
       <c r="E16" t="n">
-        <v>34.6792991092349</v>
+        <v>146.4339626465722</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1813,13 +1813,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1847,7 +1847,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.6830416206816</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -1904,7 +1904,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174118</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -2002,7 +2002,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>123.981557645674</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2011,10 +2011,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>145.4210480229352</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2065,7 +2065,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>83.29550035394011</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2087,7 +2087,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722605</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -2096,7 +2096,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2242,22 +2242,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2299,10 +2299,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>79.70119244397296</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2384,7 +2384,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -2479,16 +2479,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922704</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2521,10 +2521,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2533,7 +2533,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>142.1343012721617</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2603,10 +2603,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
         <v>250.9057009881286</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>36.00502760851847</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>99.97427419833861</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2773,7 +2773,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3016,7 +3016,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>197.7845572547712</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3077,10 +3077,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
         <v>250.9057009881286</v>
@@ -3184,13 +3184,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.6801338456686</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>103.1686991936197</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3199,13 +3199,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3250,7 +3250,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3275,7 +3275,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G35" t="n">
         <v>409.8033385187866</v>
@@ -3427,22 +3427,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>102.15578456998</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>2.029664035374466</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3487,7 +3487,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3658,7 +3658,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>114.2821160880066</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -3667,7 +3667,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3676,7 +3676,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3715,7 +3715,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>225.9908369016792</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3724,7 +3724,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3746,7 +3746,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722605</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
@@ -3895,22 +3895,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>103.1686991936193</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3961,7 +3961,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>196.7522338257557</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -4138,16 +4138,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>134.5665975534139</v>
+        <v>23.10998325717172</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4180,10 +4180,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
@@ -4304,19 +4304,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1057.043027500186</v>
+        <v>1179.250440354287</v>
       </c>
       <c r="C2" t="n">
-        <v>1057.043027500186</v>
+        <v>810.2879234138754</v>
       </c>
       <c r="D2" t="n">
-        <v>698.7773288934357</v>
+        <v>452.0222248071249</v>
       </c>
       <c r="E2" t="n">
-        <v>473.8970375929177</v>
+        <v>452.0222248071249</v>
       </c>
       <c r="F2" t="n">
-        <v>466.9515368437143</v>
+        <v>62.91113280331017</v>
       </c>
       <c r="G2" t="n">
         <v>51.2467865680031</v>
@@ -4328,25 +4328,25 @@
         <v>51.2467865680031</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362818</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816081</v>
       </c>
       <c r="L2" t="n">
-        <v>795.755353087291</v>
+        <v>795.7553530872908</v>
       </c>
       <c r="M2" t="n">
         <v>1220.470313923561</v>
       </c>
       <c r="N2" t="n">
-        <v>1656.671415230817</v>
+        <v>1656.671415230816</v>
       </c>
       <c r="O2" t="n">
-        <v>2055.22848474084</v>
+        <v>2055.228484740839</v>
       </c>
       <c r="P2" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764996</v>
       </c>
       <c r="Q2" t="n">
         <v>2542.25058172385</v>
@@ -4358,22 +4358,22 @@
         <v>2562.339328400155</v>
       </c>
       <c r="T2" t="n">
-        <v>2538.31084514477</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U2" t="n">
-        <v>2538.31084514477</v>
+        <v>2308.758267664335</v>
       </c>
       <c r="V2" t="n">
-        <v>2207.247957801199</v>
+        <v>2308.758267664335</v>
       </c>
       <c r="W2" t="n">
-        <v>2207.247957801199</v>
+        <v>1955.989612394221</v>
       </c>
       <c r="X2" t="n">
-        <v>1833.78219954012</v>
+        <v>1955.989612394221</v>
       </c>
       <c r="Y2" t="n">
-        <v>1443.642867564308</v>
+        <v>1565.850280418409</v>
       </c>
     </row>
     <row r="3">
@@ -4398,31 +4398,31 @@
         <v>302.1446891756896</v>
       </c>
       <c r="G3" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182518</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057878</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I3" t="n">
         <v>51.2467865680031</v>
       </c>
       <c r="J3" t="n">
-        <v>113.5972052500114</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K3" t="n">
-        <v>560.1394111735142</v>
+        <v>507.2413987429755</v>
       </c>
       <c r="L3" t="n">
-        <v>1117.223096727985</v>
+        <v>801.9449557744472</v>
       </c>
       <c r="M3" t="n">
-        <v>1480.485115687205</v>
+        <v>1165.206974733667</v>
       </c>
       <c r="N3" t="n">
-        <v>1867.77024428415</v>
+        <v>1552.492103330613</v>
       </c>
       <c r="O3" t="n">
-        <v>2199.840679460312</v>
+        <v>1884.562538506774</v>
       </c>
       <c r="P3" t="n">
         <v>2447.023413292609</v>
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>472.6531669530527</v>
+        <v>60.24291006213602</v>
       </c>
       <c r="C4" t="n">
-        <v>325.0883979303312</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="D4" t="n">
-        <v>325.0883979303312</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="E4" t="n">
-        <v>325.0883979303312</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="F4" t="n">
-        <v>325.0883979303312</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="G4" t="n">
-        <v>157.1019332386097</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H4" t="n">
-        <v>157.1019332386097</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I4" t="n">
         <v>51.2467865680031</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312199</v>
+        <v>76.71595955312196</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096588</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O4" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P4" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q4" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>1533.86271359008</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="S4" t="n">
-        <v>1533.86271359008</v>
+        <v>1337.23396574994</v>
       </c>
       <c r="T4" t="n">
-        <v>1533.86271359008</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="U4" t="n">
-        <v>1244.744376093917</v>
+        <v>825.1371474485136</v>
       </c>
       <c r="V4" t="n">
-        <v>990.0598878880306</v>
+        <v>570.4526592426267</v>
       </c>
       <c r="W4" t="n">
-        <v>700.6427178510701</v>
+        <v>281.0354892056661</v>
       </c>
       <c r="X4" t="n">
-        <v>472.6531669530527</v>
+        <v>281.0354892056661</v>
       </c>
       <c r="Y4" t="n">
-        <v>472.6531669530527</v>
+        <v>60.24291006213602</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4541,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1505.18439714251</v>
+        <v>1444.690564856569</v>
       </c>
       <c r="C5" t="n">
-        <v>1136.221880202098</v>
+        <v>1444.690564856569</v>
       </c>
       <c r="D5" t="n">
-        <v>777.9561815953474</v>
+        <v>1086.424866249819</v>
       </c>
       <c r="E5" t="n">
-        <v>777.9561815953474</v>
+        <v>700.6366136515746</v>
       </c>
       <c r="F5" t="n">
-        <v>366.9702768057398</v>
+        <v>693.6911129023712</v>
       </c>
       <c r="G5" t="n">
-        <v>355.3059305704328</v>
+        <v>277.98636262666</v>
       </c>
       <c r="H5" t="n">
         <v>51.2467865680031</v>
@@ -4565,13 +4565,13 @@
         <v>51.2467865680031</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362822</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816088</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L5" t="n">
-        <v>795.755353087292</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M5" t="n">
         <v>1220.470313923562</v>
@@ -4592,25 +4592,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
-        <v>2522.370548115221</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T5" t="n">
-        <v>2522.370548115221</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="U5" t="n">
-        <v>2268.789487379401</v>
+        <v>2184.059060190805</v>
       </c>
       <c r="V5" t="n">
-        <v>2268.789487379401</v>
+        <v>2184.059060190805</v>
       </c>
       <c r="W5" t="n">
-        <v>2268.789487379401</v>
+        <v>1831.290404920691</v>
       </c>
       <c r="X5" t="n">
-        <v>1895.323729118321</v>
+        <v>1831.290404920691</v>
       </c>
       <c r="Y5" t="n">
-        <v>1505.18439714251</v>
+        <v>1831.290404920691</v>
       </c>
     </row>
     <row r="6">
@@ -4620,37 +4620,37 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966388</v>
+        <v>931.3041410966385</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155118</v>
+        <v>756.8511118155116</v>
       </c>
       <c r="D6" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E6" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488048</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1446891756899</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G6" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057898</v>
       </c>
       <c r="I6" t="n">
         <v>51.2467865680031</v>
       </c>
       <c r="J6" t="n">
-        <v>113.5972052500113</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K6" t="n">
-        <v>298.3188265310613</v>
+        <v>298.3188265310614</v>
       </c>
       <c r="L6" t="n">
-        <v>932.4978103100997</v>
+        <v>932.4978103100998</v>
       </c>
       <c r="M6" t="n">
         <v>1295.75982926932</v>
@@ -4677,7 +4677,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U6" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V6" t="n">
         <v>1769.368633815395</v>
@@ -4686,7 +4686,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X6" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y6" t="n">
         <v>1099.519478116707</v>
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>762.0703369900128</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="C7" t="n">
-        <v>593.1341540621059</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="D7" t="n">
-        <v>451.9049743189132</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="E7" t="n">
-        <v>303.9918807365201</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="F7" t="n">
-        <v>157.1019332386098</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="G7" t="n">
-        <v>157.1019332386098</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H7" t="n">
-        <v>157.1019332386098</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I7" t="n">
         <v>51.2467865680031</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312196</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K7" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M7" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P7" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q7" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R7" t="n">
-        <v>1533.862713590079</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="S7" t="n">
-        <v>1533.862713590079</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="T7" t="n">
-        <v>1533.862713590079</v>
+        <v>1260.212888972913</v>
       </c>
       <c r="U7" t="n">
-        <v>1244.744376093917</v>
+        <v>971.0945514767509</v>
       </c>
       <c r="V7" t="n">
-        <v>990.0598878880302</v>
+        <v>971.0945514767509</v>
       </c>
       <c r="W7" t="n">
-        <v>990.0598878880302</v>
+        <v>681.6773814397902</v>
       </c>
       <c r="X7" t="n">
-        <v>762.0703369900128</v>
+        <v>453.6878305417729</v>
       </c>
       <c r="Y7" t="n">
-        <v>762.0703369900128</v>
+        <v>232.8952513982428</v>
       </c>
     </row>
     <row r="8">
@@ -4778,19 +4778,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1274.580917301916</v>
+        <v>1689.318139675982</v>
       </c>
       <c r="C8" t="n">
-        <v>1274.580917301916</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="D8" t="n">
-        <v>916.3152186951659</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E8" t="n">
-        <v>530.5269660969217</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F8" t="n">
-        <v>119.5410613073141</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G8" t="n">
         <v>108.5090151927147</v>
@@ -4799,55 +4799,55 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K8" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810564</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520487</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U8" t="n">
-        <v>2755.806928794323</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="V8" t="n">
-        <v>2424.744041450752</v>
+        <v>2678.274518176918</v>
       </c>
       <c r="W8" t="n">
-        <v>2071.975386180638</v>
+        <v>2452.923229912873</v>
       </c>
       <c r="X8" t="n">
-        <v>1698.509627919558</v>
+        <v>2079.457471651794</v>
       </c>
       <c r="Y8" t="n">
-        <v>1661.180757366038</v>
+        <v>1689.318139675982</v>
       </c>
     </row>
     <row r="9">
@@ -4857,64 +4857,64 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811086</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999816</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F9" t="n">
-        <v>312.38440256016</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228005</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K9" t="n">
         <v>398.4535849031476</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158129</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q9" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T9" t="n">
         <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V9" t="n">
         <v>1779.608347199865</v>
@@ -4923,10 +4923,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="10">
@@ -4936,40 +4936,40 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>720.7556739678747</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="C10" t="n">
-        <v>720.7556739678747</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D10" t="n">
-        <v>570.639034555539</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="E10" t="n">
-        <v>456.9449278938906</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F10" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G10" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L10" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N10" t="n">
         <v>1317.747152581905</v>
@@ -4981,31 +4981,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q10" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1927.294548088492</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1735.608663915319</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T10" t="n">
-        <v>1735.608663915319</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U10" t="n">
-        <v>1446.505797040962</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V10" t="n">
-        <v>1191.821308835075</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W10" t="n">
-        <v>902.4041387981144</v>
+        <v>739.4213478228399</v>
       </c>
       <c r="X10" t="n">
-        <v>902.4041387981144</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="Y10" t="n">
-        <v>902.4041387981144</v>
+        <v>511.4317969248226</v>
       </c>
     </row>
     <row r="11">
@@ -5015,10 +5015,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.224468905844</v>
+        <v>2266.424947555046</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.261951965432</v>
+        <v>1897.462430614634</v>
       </c>
       <c r="D11" t="n">
         <v>1589.996253358682</v>
@@ -5033,58 +5033,58 @@
         <v>379.2389888872365</v>
       </c>
       <c r="H11" t="n">
-        <v>92.81162322608053</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="I11" t="n">
-        <v>92.81162322608053</v>
+        <v>92.81162322608057</v>
       </c>
       <c r="J11" t="n">
-        <v>372.3074987251936</v>
+        <v>372.3074987251948</v>
       </c>
       <c r="K11" t="n">
-        <v>841.9378825128755</v>
+        <v>841.9378825128779</v>
       </c>
       <c r="L11" t="n">
-        <v>1461.45766301865</v>
+        <v>1461.457663018652</v>
       </c>
       <c r="M11" t="n">
-        <v>2182.462224957688</v>
+        <v>2182.46222495769</v>
       </c>
       <c r="N11" t="n">
-        <v>2919.747202874794</v>
+        <v>2919.747202874796</v>
       </c>
       <c r="O11" t="n">
-        <v>3602.609239333932</v>
+        <v>3602.609239333935</v>
       </c>
       <c r="P11" t="n">
-        <v>4150.91518802128</v>
+        <v>4150.915188021283</v>
       </c>
       <c r="Q11" t="n">
-        <v>4514.497374127288</v>
+        <v>4514.49737412729</v>
       </c>
       <c r="R11" t="n">
-        <v>4640.581161304026</v>
+        <v>4640.581161304028</v>
       </c>
       <c r="S11" t="n">
-        <v>4605.913419421674</v>
+        <v>4555.113898070877</v>
       </c>
       <c r="T11" t="n">
-        <v>4404.704271100993</v>
+        <v>4353.904749750195</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.260941820542</v>
+        <v>4100.461420469745</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.198054476972</v>
+        <v>3769.398533126174</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.429399206857</v>
+        <v>3416.629877856059</v>
       </c>
       <c r="X11" t="n">
-        <v>3093.963640945778</v>
+        <v>3043.16411959498</v>
       </c>
       <c r="Y11" t="n">
-        <v>2703.824308969966</v>
+        <v>2653.024787619168</v>
       </c>
     </row>
     <row r="12">
@@ -5106,40 +5106,40 @@
         <v>459.9992225560484</v>
       </c>
       <c r="F12" t="n">
-        <v>313.4646645829333</v>
+        <v>313.4646645829334</v>
       </c>
       <c r="G12" t="n">
         <v>177.6844143428629</v>
       </c>
       <c r="H12" t="n">
-        <v>92.81162322608053</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="I12" t="n">
-        <v>92.81162322608053</v>
+        <v>93.85065580060315</v>
       </c>
       <c r="J12" t="n">
-        <v>92.81162322608053</v>
+        <v>241.4986375524491</v>
       </c>
       <c r="K12" t="n">
-        <v>92.81162322608053</v>
+        <v>572.0073801158079</v>
       </c>
       <c r="L12" t="n">
-        <v>372.2013186925058</v>
+        <v>1062.739712959559</v>
       </c>
       <c r="M12" t="n">
-        <v>964.2196729446335</v>
+        <v>1117.915713151552</v>
       </c>
       <c r="N12" t="n">
-        <v>1586.31563634397</v>
+        <v>1740.011676550888</v>
       </c>
       <c r="O12" t="n">
-        <v>2133.192111344164</v>
+        <v>2286.888151551083</v>
       </c>
       <c r="P12" t="n">
-        <v>2552.77562977024</v>
+        <v>2286.888151551083</v>
       </c>
       <c r="Q12" t="n">
-        <v>2552.77562977024</v>
+        <v>2517.44942553633</v>
       </c>
       <c r="R12" t="n">
         <v>2552.77562977024</v>
@@ -5176,25 +5176,25 @@
         <v>494.0589900220732</v>
       </c>
       <c r="C13" t="n">
-        <v>494.0589900220732</v>
+        <v>325.1228070941663</v>
       </c>
       <c r="D13" t="n">
-        <v>464.2051732859736</v>
+        <v>175.0061676818306</v>
       </c>
       <c r="E13" t="n">
-        <v>464.2051732859736</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="F13" t="n">
-        <v>317.3152257880633</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="G13" t="n">
-        <v>317.3152257880633</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="H13" t="n">
-        <v>175.4425088264937</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="I13" t="n">
-        <v>92.81162322608053</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="J13" t="n">
         <v>171.7937461156345</v>
@@ -5273,28 +5273,28 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
         <v>4562.265728852254</v>
@@ -5352,31 +5352,31 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>243.4633055756266</v>
+        <v>417.9651836029414</v>
       </c>
       <c r="L15" t="n">
-        <v>738.7889117913853</v>
+        <v>913.2907898187001</v>
       </c>
       <c r="M15" t="n">
-        <v>1336.167399417937</v>
+        <v>913.2907898187001</v>
       </c>
       <c r="N15" t="n">
-        <v>1963.765362972544</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O15" t="n">
-        <v>1963.765362972544</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>985.7836617409695</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>816.8474788130595</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D16" t="n">
-        <v>666.7308394007238</v>
+        <v>383.44158778817</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408905</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429802</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797186</v>
@@ -5461,25 +5461,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>2160.315914855604</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1905.631426649717</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1616.214256612757</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1388.224705714739</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>1167.432126571209</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5489,10 +5489,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004713</v>
@@ -5510,13 +5510,13 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5552,13 +5552,13 @@
         <v>3820.749612123001</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="18">
@@ -5598,16 +5598,16 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>579.1554649516142</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1176.533952578166</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1804.131916132773</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>2356.04164637206</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P18" t="n">
         <v>2516.421633107662</v>
@@ -5647,19 +5647,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>724.7519863413023</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>555.8158034133954</v>
+        <v>388.6197041282793</v>
       </c>
       <c r="D19" t="n">
-        <v>555.8158034133954</v>
+        <v>388.6197041282793</v>
       </c>
       <c r="E19" t="n">
-        <v>407.9027098310023</v>
+        <v>240.7066105458862</v>
       </c>
       <c r="F19" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G19" t="n">
         <v>93.81666304797186</v>
@@ -5695,28 +5695,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1127.193030315072</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>906.400451171542</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
         <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075808</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="21">
@@ -5823,28 +5823,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>95.58405025273902</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>244.2098454714574</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>739.5354516872161</v>
+        <v>867.8220324314351</v>
       </c>
       <c r="M21" t="n">
-        <v>1336.913939313768</v>
+        <v>1465.200520057987</v>
       </c>
       <c r="N21" t="n">
-        <v>1964.511902868375</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="O21" t="n">
-        <v>2516.421633107662</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P21" t="n">
         <v>2516.421633107662</v>
@@ -5884,28 +5884,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>950.7540666811332</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>781.8178837532263</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>631.7012443408905</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E22" t="n">
-        <v>631.7012443408905</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429802</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
@@ -5917,43 +5917,43 @@
         <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.150240910805</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570813</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279798</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853357</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580256</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832659</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487563</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510504</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854702</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648815</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1353.195110654903</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1353.195110654903</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>1132.402531511373</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5978,28 +5978,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6069,25 +6069,25 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>740.5562989961525</v>
+        <v>739.5354516872161</v>
       </c>
       <c r="M24" t="n">
-        <v>1337.934786622704</v>
+        <v>1336.913939313768</v>
       </c>
       <c r="N24" t="n">
-        <v>1965.532750177311</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O24" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,19 +6121,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>874.8686257536395</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>705.9324428257327</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>555.8158034133969</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>407.9027098310038</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="F25" t="n">
-        <v>261.0127623330935</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G25" t="n">
         <v>93.81666304797187</v>
@@ -6169,28 +6169,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1794.716390662387</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1505.299220625427</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1277.309669727409</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>1056.517090583879</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6215,22 +6215,22 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797186</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K26" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
         <v>2206.558663014778</v>
@@ -6242,16 +6242,16 @@
         <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
         <v>4405.252601474784</v>
@@ -6260,13 +6260,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6297,28 +6297,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K27" t="n">
-        <v>119.290296770379</v>
+        <v>221.3431781811715</v>
       </c>
       <c r="L27" t="n">
-        <v>119.290296770379</v>
+        <v>716.6687843969303</v>
       </c>
       <c r="M27" t="n">
-        <v>716.6687843969308</v>
+        <v>716.6687843969303</v>
       </c>
       <c r="N27" t="n">
-        <v>1344.266747951538</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O27" t="n">
-        <v>1896.176478190825</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P27" t="n">
         <v>2319.799627685893</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>948.5505208511905</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C28" t="n">
-        <v>779.6143379232836</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D28" t="n">
-        <v>779.6143379232836</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="E28" t="n">
-        <v>631.7012443408905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429802</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580259</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832661</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487565</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510506</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854704</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648817</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W28" t="n">
-        <v>1433.701365648817</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X28" t="n">
-        <v>1205.7118147508</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y28" t="n">
-        <v>984.9192356072698</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="29">
@@ -6452,31 +6452,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6537,25 +6537,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516142</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L30" t="n">
-        <v>1074.481071167373</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M30" t="n">
-        <v>1074.481071167373</v>
+        <v>1025.119922845744</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>1652.717886400351</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2204.627616639638</v>
       </c>
       <c r="P30" t="n">
         <v>2283.159972732779</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>783.5579673960132</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>614.6217844681063</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>464.5051450557705</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E31" t="n">
-        <v>464.5051450557705</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="F31" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6643,28 +6643,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>783.5579673960132</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6689,31 +6689,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6734,13 +6734,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6774,22 +6774,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>95.58405025273903</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>429.5088224239596</v>
+        <v>506.2737913123336</v>
       </c>
       <c r="L33" t="n">
-        <v>924.8344286397182</v>
+        <v>506.2737913123336</v>
       </c>
       <c r="M33" t="n">
-        <v>1522.21291626627</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N33" t="n">
-        <v>2149.810879820877</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O33" t="n">
         <v>2283.159972732779</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>809.0422355233313</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C34" t="n">
-        <v>640.1060525954244</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D34" t="n">
-        <v>489.9894131830887</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="E34" t="n">
-        <v>489.9894131830887</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F34" t="n">
-        <v>343.0994656851783</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V34" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W34" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X34" t="n">
-        <v>1211.329899359456</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y34" t="n">
-        <v>990.5373202159259</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="35">
@@ -6911,10 +6911,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
         <v>1590.547811004712</v>
@@ -6923,31 +6923,31 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J35" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -6968,19 +6968,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -7011,28 +7011,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L36" t="n">
-        <v>740.5562989961525</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M36" t="n">
-        <v>1337.934786622704</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N36" t="n">
-        <v>1965.532750177311</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="O36" t="n">
-        <v>1965.532750177311</v>
+        <v>2515.675093211831</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q36" t="n">
         <v>2516.421633107662</v>
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>808.8888553856862</v>
+        <v>513.8536007400699</v>
       </c>
       <c r="C37" t="n">
-        <v>639.9526724577793</v>
+        <v>344.917417812163</v>
       </c>
       <c r="D37" t="n">
-        <v>639.9526724577793</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E37" t="n">
-        <v>492.0395788753862</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F37" t="n">
-        <v>345.1496313774758</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G37" t="n">
-        <v>177.9535320923557</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7099,46 +7099,46 @@
         <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797728</v>
       </c>
       <c r="M37" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910807</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570816</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P37" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580259</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832661</v>
       </c>
       <c r="S37" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="T37" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510507</v>
       </c>
       <c r="U37" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="V37" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W37" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611857</v>
       </c>
       <c r="X37" t="n">
-        <v>1211.329899359456</v>
+        <v>916.2946447138397</v>
       </c>
       <c r="Y37" t="n">
-        <v>990.5373202159259</v>
+        <v>695.5020655703096</v>
       </c>
     </row>
     <row r="38">
@@ -7160,19 +7160,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
         <v>852.8523611075807</v>
@@ -7187,7 +7187,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7254,22 +7254,22 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>315.9123021921482</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M39" t="n">
-        <v>913.2907898187001</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N39" t="n">
-        <v>1540.888753373307</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O39" t="n">
-        <v>2092.798483612594</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P39" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
         <v>2516.421633107662</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>869.6905094135296</v>
+        <v>580.0655846733346</v>
       </c>
       <c r="C40" t="n">
-        <v>700.7543264856228</v>
+        <v>411.1294017454277</v>
       </c>
       <c r="D40" t="n">
-        <v>550.637687073287</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797187</v>
@@ -7354,28 +7354,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1816.233211630147</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1561.54872342426</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1272.131553387299</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>1272.131553387299</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>1051.338974243769</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7385,13 +7385,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
         <v>1204.759558406469</v>
@@ -7403,58 +7403,58 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7482,28 +7482,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516142</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L42" t="n">
-        <v>1074.481071167373</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M42" t="n">
-        <v>1103.652278938886</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N42" t="n">
-        <v>1731.250242493492</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O42" t="n">
-        <v>2283.159972732779</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P42" t="n">
         <v>2283.159972732779</v>
@@ -7543,28 +7543,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>724.7519863413023</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>555.8158034133954</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>555.8158034133954</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="E43" t="n">
-        <v>407.9027098310023</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F43" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782957</v>
@@ -7609,10 +7609,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>945.5445654848324</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>724.7519863413023</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7622,43 +7622,43 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
         <v>3640.42229106801</v>
@@ -7679,19 +7679,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7731,22 +7731,22 @@
         <v>245.2306927803937</v>
       </c>
       <c r="L45" t="n">
-        <v>710.2486053718725</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="M45" t="n">
-        <v>1307.627092998424</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,19 +7780,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>696.7084350851671</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C46" t="n">
-        <v>527.7722521572603</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D46" t="n">
-        <v>377.6556127449245</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="E46" t="n">
-        <v>229.7425191625314</v>
+        <v>264.0500279773688</v>
       </c>
       <c r="F46" t="n">
-        <v>229.7425191625314</v>
+        <v>117.1600804794585</v>
       </c>
       <c r="G46" t="n">
         <v>93.81666304797187</v>
@@ -7828,28 +7828,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S46" t="n">
-        <v>2379.917379832663</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T46" t="n">
-        <v>2160.315914855604</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U46" t="n">
-        <v>1871.240688199802</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V46" t="n">
-        <v>1616.556199993915</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W46" t="n">
-        <v>1327.139029956954</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X46" t="n">
-        <v>1099.149479058937</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y46" t="n">
-        <v>878.3568999154069</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
   </sheetData>
@@ -8055,13 +8055,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>84.94186588374703</v>
       </c>
       <c r="L3" t="n">
-        <v>265.0304328515139</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8073,13 +8073,13 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>20.93778120154988</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8298,7 +8298,7 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>342.9044714621886</v>
+        <v>342.9044714621885</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8307,7 +8307,7 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>186.5911984019047</v>
+        <v>186.5911984019041</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
@@ -8316,7 +8316,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>20.93778120154991</v>
+        <v>20.93778120154988</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -22553,10 +22553,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>181.1197517384235</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>21.65606465793485</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -22565,7 +22565,7 @@
         <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22598,7 +22598,7 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>182.869986557403</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -22705,22 +22705,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>21.15769976613348</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -22753,7 +22753,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -22771,7 +22771,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -23261,7 +23261,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>50.29152613728996</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23306,7 +23306,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>50.29152613729119</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23416,25 +23416,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>119.0601944494738</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>65.06136363537664</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>165.5420528771669</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.80457674440902</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23653,25 +23653,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>19.50758019583012</v>
       </c>
       <c r="E16" t="n">
-        <v>111.7546635373343</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23701,13 +23701,13 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23890,7 +23890,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>43.26526345295385</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23902,7 +23902,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23953,7 +23953,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>142.4141550350971</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -23984,7 +23984,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24130,22 +24130,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>63.36835372228751</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24187,10 +24187,10 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>206.821805892618</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24367,16 +24367,16 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>43.26526345294991</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
@@ -24409,10 +24409,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24421,7 +24421,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>110.0033420516663</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24598,28 +24598,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>143.8269525734188</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>46.45968844823057</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24661,7 +24661,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24835,28 +24835,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>43.26526345294991</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>20.80009609732355</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25072,13 +25072,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.1518463362687044</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>45.44677382459263</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25087,13 +25087,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,7 +25120,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25138,7 +25138,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25315,22 +25315,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>46.45968844823237</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>138.2650488108494</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,7 +25357,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25375,7 +25375,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25546,7 +25546,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>65.54986409393069</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -25555,7 +25555,7 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -25564,7 +25564,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -25594,7 +25594,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25603,7 +25603,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>60.1936374875649</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25612,7 +25612,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25783,22 +25783,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>45.44677382459305</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
@@ -25849,7 +25849,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>28.95742156328146</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26026,16 +26026,16 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>30.95754073885493</v>
+        <v>142.4141550350971</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
@@ -26068,10 +26068,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>955546.9671374829</v>
+        <v>955546.9671374828</v>
       </c>
     </row>
     <row r="3">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>375475.6212503245</v>
+        <v>375475.6212503244</v>
       </c>
       <c r="C2" t="n">
-        <v>410520.8849321417</v>
+        <v>410520.8849321418</v>
       </c>
       <c r="D2" t="n">
         <v>410520.8849321416</v>
       </c>
       <c r="E2" t="n">
-        <v>401339.8858190153</v>
+        <v>401339.8858190155</v>
       </c>
       <c r="F2" t="n">
         <v>403573.2998450031</v>
       </c>
       <c r="G2" t="n">
+        <v>403573.299845003</v>
+      </c>
+      <c r="H2" t="n">
         <v>403573.2998450031</v>
       </c>
-      <c r="H2" t="n">
+      <c r="I2" t="n">
+        <v>403573.299845003</v>
+      </c>
+      <c r="J2" t="n">
         <v>403573.2998450029</v>
       </c>
-      <c r="I2" t="n">
-        <v>403573.2998450031</v>
-      </c>
-      <c r="J2" t="n">
+      <c r="K2" t="n">
         <v>403573.299845003</v>
-      </c>
-      <c r="K2" t="n">
-        <v>403573.2998450031</v>
       </c>
       <c r="L2" t="n">
         <v>403573.299845003</v>
       </c>
       <c r="M2" t="n">
+        <v>403573.2998450032</v>
+      </c>
+      <c r="N2" t="n">
+        <v>403573.2998450032</v>
+      </c>
+      <c r="O2" t="n">
         <v>403573.2998450031</v>
       </c>
-      <c r="N2" t="n">
-        <v>403573.2998450031</v>
-      </c>
-      <c r="O2" t="n">
-        <v>403573.2998450029</v>
-      </c>
       <c r="P2" t="n">
-        <v>403573.2998450031</v>
+        <v>403573.2998450032</v>
       </c>
     </row>
     <row r="3">
@@ -26363,19 +26363,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1114751.78357592</v>
+        <v>1114751.783575919</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2.07046923605958e-10</v>
       </c>
       <c r="D3" t="n">
-        <v>192627.1404403377</v>
+        <v>192627.1404403378</v>
       </c>
       <c r="E3" t="n">
-        <v>313680.0588189858</v>
+        <v>313680.0588189856</v>
       </c>
       <c r="F3" t="n">
-        <v>11452.26311504116</v>
+        <v>11452.26311504103</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26387,19 +26387,19 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099825</v>
+        <v>167605.1778099827</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>48293.97000819068</v>
+        <v>48293.97000819096</v>
       </c>
       <c r="M3" t="n">
-        <v>81924.27863832924</v>
+        <v>81924.27863832908</v>
       </c>
       <c r="N3" t="n">
-        <v>3077.01735570473</v>
+        <v>3077.017355704618</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26415,22 +26415,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>96720.90836372924</v>
+        <v>96720.90836372916</v>
       </c>
       <c r="C4" t="n">
         <v>136726.2736921025</v>
       </c>
       <c r="D4" t="n">
-        <v>88524.23512810795</v>
+        <v>88524.23512810786</v>
       </c>
       <c r="E4" t="n">
         <v>9330.667735531239</v>
       </c>
       <c r="F4" t="n">
+        <v>9337.20035675659</v>
+      </c>
+      <c r="G4" t="n">
         <v>9337.200356756592</v>
-      </c>
-      <c r="G4" t="n">
-        <v>9337.200356756653</v>
       </c>
       <c r="H4" t="n">
         <v>9337.200356756592</v>
@@ -26442,22 +26442,22 @@
         <v>9337.200356756592</v>
       </c>
       <c r="K4" t="n">
-        <v>9337.20035675659</v>
+        <v>9337.200356756592</v>
       </c>
       <c r="L4" t="n">
-        <v>9337.200356756575</v>
+        <v>9337.200356756592</v>
       </c>
       <c r="M4" t="n">
         <v>9337.200356756592</v>
       </c>
       <c r="N4" t="n">
+        <v>9337.20035675659</v>
+      </c>
+      <c r="O4" t="n">
+        <v>9337.20035675665</v>
+      </c>
+      <c r="P4" t="n">
         <v>9337.200356756592</v>
-      </c>
-      <c r="O4" t="n">
-        <v>9337.200356756592</v>
-      </c>
-      <c r="P4" t="n">
-        <v>9337.20035675659</v>
       </c>
     </row>
     <row r="5">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-928934.8431291692</v>
+        <v>-929110.0694475779</v>
       </c>
       <c r="C6" t="n">
-        <v>180856.8388001947</v>
+        <v>180856.8388001944</v>
       </c>
       <c r="D6" t="n">
-        <v>21435.56880230267</v>
+        <v>21435.56880230259</v>
       </c>
       <c r="E6" t="n">
-        <v>-21812.96924934008</v>
+        <v>-21858.87424490539</v>
       </c>
       <c r="F6" t="n">
-        <v>281661.3065492983</v>
+        <v>281626.5686238626</v>
       </c>
       <c r="G6" t="n">
-        <v>293113.5696643393</v>
+        <v>293078.8317389036</v>
       </c>
       <c r="H6" t="n">
-        <v>293113.5696643393</v>
+        <v>293078.8317389037</v>
       </c>
       <c r="I6" t="n">
-        <v>293113.5696643394</v>
+        <v>293078.8317389036</v>
       </c>
       <c r="J6" t="n">
-        <v>125508.3918543568</v>
+        <v>125473.6539289208</v>
       </c>
       <c r="K6" t="n">
-        <v>293113.5696643394</v>
+        <v>293078.8317389038</v>
       </c>
       <c r="L6" t="n">
-        <v>244819.5996561486</v>
+        <v>244784.8617307126</v>
       </c>
       <c r="M6" t="n">
-        <v>211189.2910260102</v>
+        <v>211154.5531005748</v>
       </c>
       <c r="N6" t="n">
-        <v>290036.5523086347</v>
+        <v>290001.8143831991</v>
       </c>
       <c r="O6" t="n">
-        <v>293113.5696643392</v>
+        <v>293078.8317389037</v>
       </c>
       <c r="P6" t="n">
-        <v>293113.5696643394</v>
+        <v>293078.8317389038</v>
       </c>
     </row>
   </sheetData>
@@ -26735,10 +26735,10 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>934.0648921175391</v>
+      </c>
+      <c r="C3" t="n">
         <v>934.0648921175393</v>
-      </c>
-      <c r="C3" t="n">
-        <v>934.0648921175391</v>
       </c>
       <c r="D3" t="n">
         <v>1089.776700593298</v>
@@ -26793,10 +26793,10 @@
         <v>640.5848321000387</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
-        <v>1160.145290326006</v>
+        <v>1160.145290326007</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
@@ -26957,16 +26957,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="D3" t="n">
         <v>155.711808475759</v>
       </c>
       <c r="E3" t="n">
-        <v>268.2643481230878</v>
+        <v>268.2643481230875</v>
       </c>
       <c r="F3" t="n">
         <v>9.93445162528792</v>
@@ -26981,13 +26981,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -27015,13 +27015,13 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>190.8166233022537</v>
+        <v>190.8166233022541</v>
       </c>
       <c r="E4" t="n">
         <v>328.7438349237141</v>
       </c>
       <c r="F4" t="n">
-        <v>12.56299777364165</v>
+        <v>12.5629977736412</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27033,19 +27033,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000385</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.8166233022537</v>
+        <v>190.8166233022541</v>
       </c>
       <c r="M4" t="n">
         <v>328.7438349237141</v>
       </c>
       <c r="N4" t="n">
-        <v>12.56299777364165</v>
+        <v>12.5629977736412</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27261,13 +27261,13 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.8166233022537</v>
+        <v>190.8166233022541</v>
       </c>
       <c r="M4" t="n">
         <v>328.7438349237141</v>
       </c>
       <c r="N4" t="n">
-        <v>12.56299777364165</v>
+        <v>12.5629977736412</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27379,25 +27379,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>159.2988816847491</v>
+        <v>200.8106183338383</v>
       </c>
       <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
         <v>400</v>
       </c>
-      <c r="G2" t="n">
-        <v>0</v>
-      </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247047</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27430,19 +27430,19 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27537,25 +27537,25 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>158.3406588394363</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27588,7 +27588,7 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -27600,7 +27600,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27613,28 +27613,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>76.54637226433505</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247049</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,7 +27664,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>83.88312291671025</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>206.6581849802338</v>
@@ -27676,13 +27676,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27771,28 +27771,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>8.798585072451573</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551289</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27822,25 +27822,25 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>220.7486959972119</v>
+        <v>144.4978299879545</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,13 +27850,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27865,7 +27865,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>294.6077643873205</v>
@@ -27907,19 +27907,19 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>126.1431933360091</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>349.2823568080687</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,7 +28008,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -28017,7 +28017,7 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>33.87679705153732</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -28026,10 +28026,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,13 +28056,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -28071,10 +28071,10 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>147.1281388806943</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28485,13 +28485,13 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>-1.091933409071128e-12</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>-7.333857380491618e-13</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -28567,7 +28567,7 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -28624,7 +28624,7 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -28731,7 +28731,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>-3.959144123655279e-12</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -28807,7 +28807,7 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>1.307398633798584e-12</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -28989,7 +28989,7 @@
         <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>-2.411648116956221e-12</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
         <v>0</v>
@@ -29104,7 +29104,7 @@
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -29208,7 +29208,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>-1.508245380440106e-12</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -29326,7 +29326,7 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -29475,7 +29475,7 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>-1.885306725550132e-12</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -29800,7 +29800,7 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>-3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -29995,7 +29995,7 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -30466,7 +30466,7 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>1.307398633798584e-12</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -31039,46 +31039,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H2" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I2" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L2" t="n">
-        <v>592.5726450767381</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q2" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R2" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T2" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U2" t="n">
         <v>0.3004027793744847</v>
@@ -31121,10 +31121,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
@@ -31133,34 +31133,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q3" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R3" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31203,7 +31203,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.65387972335772</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
@@ -31218,10 +31218,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O4" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P4" t="n">
         <v>203.7180217169137</v>
@@ -31230,16 +31230,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S4" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,46 +31276,46 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H5" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I5" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J5" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L5" t="n">
-        <v>592.5726450767379</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q5" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R5" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T5" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U5" t="n">
         <v>0.3004027793744847</v>
@@ -31358,10 +31358,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H6" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J6" t="n">
         <v>189.8178475575841</v>
@@ -31370,34 +31370,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M6" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N6" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P6" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q6" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R6" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31440,7 +31440,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
@@ -31455,10 +31455,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N7" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O7" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P7" t="n">
         <v>203.7180217169137</v>
@@ -31467,16 +31467,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S7" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,43 +31513,43 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I8" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T8" t="n">
         <v>19.1778794245112</v>
@@ -31598,40 +31598,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K9" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O9" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31671,13 +31671,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
@@ -31686,16 +31686,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P10" t="n">
         <v>237.6785118802169</v>
@@ -31704,16 +31704,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31835,19 +31835,19 @@
         <v>28.21138103088191</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>100.5719078530531</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>275.9770021735818</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>471.6886536848224</v>
       </c>
       <c r="L12" t="n">
-        <v>420.7661933823239</v>
+        <v>634.2436048745725</v>
       </c>
       <c r="M12" t="n">
-        <v>740.1323715504302</v>
+        <v>197.8673674492839</v>
       </c>
       <c r="N12" t="n">
         <v>759.7214730927639</v>
@@ -31856,13 +31856,13 @@
         <v>694.9967242426205</v>
       </c>
       <c r="P12" t="n">
-        <v>557.7961431982454</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>372.8719498286953</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>181.3625385436714</v>
       </c>
       <c r="S12" t="n">
         <v>54.25758340862161</v>
@@ -32072,34 +32072,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>312.3207226334981</v>
       </c>
       <c r="L15" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>493.6049778318539</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32318,7 +32318,7 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
         <v>745.5466476862121</v>
@@ -32327,10 +32327,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>361.7519118779092</v>
       </c>
       <c r="P18" t="n">
-        <v>295.9743940159484</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32549,13 +32549,13 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>287.9685048518523</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>430.1367711736326</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862121</v>
@@ -32564,10 +32564,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -32789,10 +32789,10 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>300.5543663814922</v>
       </c>
       <c r="M24" t="n">
         <v>745.5466476862121</v>
@@ -32801,16 +32801,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>500.4415752611932</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>161.7871425275307</v>
+        <v>266.6561007250657</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33257,28 +33257,28 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>366.8427442359106</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>213.3000196296242</v>
       </c>
       <c r="Q30" t="n">
         <v>375.599612848529</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33421,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>403.3065760821439</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>277.2922978908106</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R33" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33658,7 +33658,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817581</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
         <v>867.846407116256</v>
@@ -33731,7 +33731,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
@@ -33749,13 +33749,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>454.8099857531869</v>
+        <v>134.7284881171895</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>182.6892564418561</v>
@@ -33910,7 +33910,7 @@
         <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.820449923651</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
         <v>593.8732233669223</v>
@@ -33974,16 +33974,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>209.9499448422525</v>
+        <v>270.9716933356906</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
         <v>700.0808204437243</v>
@@ -33992,7 +33992,7 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
         <v>182.6892564418561</v>
@@ -34138,7 +34138,7 @@
         <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175679</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
         <v>981.2715114159425</v>
@@ -34205,10 +34205,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
         <v>475.1391886422585</v>
@@ -34217,16 +34217,16 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>171.5999003578897</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>473.8581708471803</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
         <v>375.599612848529</v>
@@ -34381,7 +34381,7 @@
         <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
         <v>790.8204499236507</v>
@@ -34451,13 +34451,13 @@
         <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>608.2694430035901</v>
+        <v>614.7544723218309</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
         <v>700.0808204437243</v>
@@ -34469,7 +34469,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P2" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q2" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939907</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091745</v>
+        <v>189.0712562313262</v>
       </c>
       <c r="K3" t="n">
-        <v>451.0527332560634</v>
+        <v>271.5293621272318</v>
       </c>
       <c r="L3" t="n">
-        <v>562.7107934893642</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820406</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N3" t="n">
-        <v>391.197099592874</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O3" t="n">
-        <v>335.4246819961231</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P3" t="n">
-        <v>249.6795291235323</v>
+        <v>568.1422977634694</v>
       </c>
       <c r="Q3" t="n">
-        <v>116.4807223308546</v>
+        <v>116.4807223308545</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K4" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L4" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M4" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O4" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P4" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.88175545805406</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K5" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P5" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q5" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>62.98022089091739</v>
+        <v>62.98022089091745</v>
       </c>
       <c r="K6" t="n">
         <v>186.5874962434848</v>
@@ -35021,19 +35021,19 @@
         <v>640.5848321000387</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820404</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N6" t="n">
-        <v>391.1970995928739</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O6" t="n">
-        <v>522.0158803980277</v>
+        <v>522.0158803980272</v>
       </c>
       <c r="P6" t="n">
-        <v>249.6795291235322</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q6" t="n">
-        <v>116.4807223308545</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K7" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L7" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M7" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N7" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O7" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P7" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K9" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P9" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,10 +35328,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K10" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L10" t="n">
         <v>319.7573721701981</v>
@@ -35343,13 +35343,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O10" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P10" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35483,19 +35483,19 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.049527853053121</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>149.1393755069151</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>333.8472147104634</v>
       </c>
       <c r="L12" t="n">
-        <v>282.2118136024497</v>
+        <v>495.6892250946983</v>
       </c>
       <c r="M12" t="n">
-        <v>597.9983376284119</v>
+        <v>55.73333352726556</v>
       </c>
       <c r="N12" t="n">
         <v>628.3797610094306</v>
@@ -35504,13 +35504,13 @@
         <v>552.4004797981761</v>
       </c>
       <c r="P12" t="n">
-        <v>423.8217357839152</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>232.8901757426738</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>35.68303457970742</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35720,34 +35720,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>174.4792836591391</v>
       </c>
       <c r="L15" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>359.6305704175236</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35966,7 +35966,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
@@ -35975,10 +35975,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>219.1556674334648</v>
       </c>
       <c r="P18" t="n">
-        <v>161.9999866016181</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36197,13 +36197,13 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>150.1270658774933</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>291.5823913937584</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
@@ -36212,10 +36212,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36285,7 +36285,7 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010408</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
@@ -36437,10 +36437,10 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>161.999986601618</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
@@ -36449,16 +36449,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>357.8453308167487</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,31 +36668,31 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>23.94570355317167</v>
+        <v>128.8146617507067</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
       </c>
       <c r="Q28" t="n">
-        <v>120.4022572998965</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36905,28 +36905,28 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>235.5010321525773</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>79.325612215294</v>
       </c>
       <c r="Q30" t="n">
         <v>235.6178387625075</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,34 +37142,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678996</v>
+        <v>265.4651371077849</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>134.6960534463662</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,22 +37224,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37306,7 +37306,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367776</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
         <v>632.0799921462688</v>
@@ -37379,7 +37379,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37397,13 +37397,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>320.8355783388566</v>
+        <v>0.7540807028592577</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>37.00975247789211</v>
@@ -37467,7 +37467,7 @@
         <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191298</v>
       </c>
       <c r="M37" t="n">
         <v>426.2724270010451</v>
@@ -37558,7 +37558,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
         <v>371.5675334924728</v>
@@ -37622,16 +37622,16 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>71.39556506237828</v>
+        <v>132.4173135558164</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>557.4845759992799</v>
@@ -37640,7 +37640,7 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
         <v>37.00975247789211</v>
@@ -37786,7 +37786,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
         <v>751.8584478193516</v>
@@ -37853,10 +37853,10 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>337.2977496678996</v>
@@ -37865,16 +37865,16 @@
         <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>29.46586643587134</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>342.516458763847</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
         <v>235.6178387625075</v>
@@ -38029,7 +38029,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
         <v>559.5874541683811</v>
@@ -38099,13 +38099,13 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>469.7150632237159</v>
+        <v>476.2000925419567</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
         <v>557.4845759992799</v>
@@ -38117,7 +38117,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
